--- a/admin/excel-templates-professor/professor.xlsx
+++ b/admin/excel-templates-professor/professor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine Fernandez\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clarisse\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E289B3F-AA92-4650-9596-B98A453744E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E8962F-923B-4A2B-AE46-6263C0A90223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7785" xr2:uid="{5761A328-D8C7-4889-A35B-018C7FD3551F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5761A328-D8C7-4889-A35B-018C7FD3551F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>21-1261</t>
   </si>
@@ -54,18 +54,9 @@
     <t>Meralles</t>
   </si>
   <si>
-    <t>Full-time</t>
-  </si>
-  <si>
-    <t>Part-time</t>
-  </si>
-  <si>
     <t>Jasmine</t>
   </si>
   <si>
-    <t>Employment Status</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -82,9 +73,6 @@
   </si>
   <si>
     <t>Age</t>
-  </si>
-  <si>
-    <t>Birthday</t>
   </si>
   <si>
     <t>Faculty Id</t>
@@ -136,9 +124,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,13 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -285,9 +264,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -325,7 +304,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -431,7 +410,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -573,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -584,92 +563,80 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>11</v>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>27</v>
       </c>
-      <c r="E2" s="5">
-        <v>45201</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -677,68 +644,51 @@
       <c r="D3" s="2">
         <v>27</v>
       </c>
-      <c r="E3" s="3">
-        <v>45202</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>29</v>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>27</v>
       </c>
-      <c r="E4" s="3">
-        <v>45203</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>30</v>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{823A62DC-E534-4978-B037-1DB73AE6681F}">
-      <formula1>"Full-time, Part-time"</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{874D9D4C-DB7C-4A59-9934-F6D6061ACB3F}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{FEA634AE-0329-4898-AFDD-5539A736EEE4}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{5E3D1672-87F4-4A48-B772-586AC48E525D}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{874D9D4C-DB7C-4A59-9934-F6D6061ACB3F}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{FEA634AE-0329-4898-AFDD-5539A736EEE4}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{5E3D1672-87F4-4A48-B772-586AC48E525D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/admin/excel-templates-professor/professor.xlsx
+++ b/admin/excel-templates-professor/professor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clarisse\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E8962F-923B-4A2B-AE46-6263C0A90223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBFB660-A7F7-4C86-AA18-1E19CF934FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5761A328-D8C7-4889-A35B-018C7FD3551F}"/>
   </bookViews>
@@ -63,21 +63,9 @@
     <t>Username</t>
   </si>
   <si>
-    <t>Surname</t>
-  </si>
-  <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>Middlename</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
-    <t>Faculty Id</t>
-  </si>
-  <si>
     <t>Gracio</t>
   </si>
   <si>
@@ -108,9 +96,6 @@
     <t>prof345</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>jasmine.elisolutions@gmail.com</t>
   </si>
   <si>
@@ -118,6 +103,21 @@
   </si>
   <si>
     <t>jasminefernandez031@gmail.com</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Faculty ID</t>
+  </si>
+  <si>
+    <t>Email Address</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,22 +580,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>7</v>
@@ -622,10 +622,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>1</v>
@@ -633,10 +633,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -645,13 +645,13 @@
         <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>2</v>
@@ -659,25 +659,25 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>3</v>
